--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74647FED-DCDA-4A76-8174-35B2F85F133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CFC70F-C283-4273-8D0B-645BF9889BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="-16200" windowWidth="16935" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-16200" windowWidth="15645" windowHeight="15600" tabRatio="652" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="78">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -182,10 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>櫻井家</t>
     <rPh sb="0" eb="2">
       <t>サクライ</t>
@@ -429,6 +425,120 @@
   </si>
   <si>
     <t>certification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者ID</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文へのリンク</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事ID</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント者ID</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント日時</t>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント本文</t>
+    <rPh sb="4" eb="6">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ作成日時</t>
+    <rPh sb="6" eb="10">
+      <t>サクセイニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティタグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ概要</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティメンバーデータ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -512,13 +622,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +656,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,7 +1008,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -903,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -917,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -960,16 +1087,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,16 +1104,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,16 +1121,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,16 +1138,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,16 +1155,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,16 +1172,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1063,7 +1190,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1295,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1314,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1322,13 +1449,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1336,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1350,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1362,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1410,10 +1537,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1432,10 +1559,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1454,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1476,10 +1603,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1498,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1520,10 +1647,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1542,10 +1669,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1808,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B45" sqref="B44:B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1827,34 +1954,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +2001,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1903,16 +2042,22 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table article (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1921,14 +2066,16 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">article 　 </v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1946,7 +2093,9 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1964,7 +2113,9 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1982,7 +2133,9 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2000,7 +2153,9 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2018,7 +2173,9 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2036,7 +2193,9 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2282,7 +2441,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2300,34 +2459,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2506,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2376,14 +2547,16 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table comment (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2401,7 +2574,9 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2419,7 +2594,9 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2437,7 +2614,9 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2455,7 +2634,9 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2754,13 +2935,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E55E1B-2C85-4FC1-B15C-FA56CB0F74E8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
@@ -2773,34 +2954,44 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2810,7 +3001,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2849,14 +3042,1000 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table community (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57F7FE-B922-4A96-81BC-10F4372841E1}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table member (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71348289-106F-4B44-9355-AD2601F118FC}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table chat (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3221,950 +4400,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57F7FE-B922-4A96-81BC-10F4372841E1}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71348289-106F-4B44-9355-AD2601F118FC}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CFC70F-C283-4273-8D0B-645BF9889BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F805CA-79CB-4C4E-AE6B-29B0F529CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16200" windowWidth="15645" windowHeight="15600" tabRatio="652" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10650" yWindow="-16200" windowWidth="18150" windowHeight="15600" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="community" sheetId="5" r:id="rId5"/>
     <sheet name="member" sheetId="6" r:id="rId6"/>
     <sheet name="chat" sheetId="7" r:id="rId7"/>
+    <sheet name="language_list" sheetId="8" r:id="rId8"/>
+    <sheet name="purpose_list" sheetId="9" r:id="rId9"/>
+    <sheet name="certification_list" sheetId="10" r:id="rId10"/>
+    <sheet name="tag_list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -329,10 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーデータ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -539,6 +539,322 @@
   </si>
   <si>
     <t>コミュニティメンバーデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_create</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_favs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_link</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加ID</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>participation_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言ID</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remark_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言内容</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remark_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言日時</t>
+    <rPh sb="0" eb="2">
+      <t>ハツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>remark_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用言語ID</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>language_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用言語項目</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウゲンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>language_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用言語一覧</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウゲンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>language_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用理由一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purpose_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purpose_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>certification_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用言語一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purpose_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報に使う使用言語の一覧</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シヨウゲンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報に使う仕様理由の一覧</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報に使う資格の一覧</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記事、コミュニティに使うタグの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -639,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,10 +974,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,7 +1321,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1087,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -1188,39 +1501,69 @@
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -1418,8 +1761,515 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3617DEAB-F08F-4BEB-8A0C-68D6E8A77B88}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table certification_list (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>certification_id char (1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>certification_item varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC6115D-5A3E-4A62-B269-F4EC510A0537}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1441,7 +2291,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1455,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1469,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1477,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1489,7 +2339,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1529,7 +2379,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table tag_list (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1537,21 +2387,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id  ,</v>
+        <v>tag_id char (1),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1559,33 +2417,35 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password  ,</v>
+        <v>tag_item varchar (20)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1595,19 +2455,15 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name  ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1617,19 +2473,15 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>language  ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1639,19 +2491,15 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>purpose  ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1661,19 +2509,15 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>career  ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1683,7 +2527,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">certification  </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,12 +2775,569 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table user (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id varchar (16),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>password varchar (16),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_name varchar  (16),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>language char (16),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>purpose char (11),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>career varchar (20),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>certification char (14)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1968,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1982,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2050,23 +3451,29 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">article 　 </v>
+        <v>article_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2074,19 +3481,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>article_title varchar (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2094,19 +3509,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_id varchar (16),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2114,39 +3537,51 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>article_create timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>article_update timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2154,19 +3589,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>article_tag char (43),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2174,19 +3617,25 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>article_favs int ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2194,19 +3643,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>article_link varchar (20)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2441,7 +3898,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2473,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2487,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2555,19 +4012,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>comment_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2575,19 +4042,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>article_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2595,19 +4068,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_id varchar (16),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2615,19 +4096,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>comment_date timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2635,19 +4122,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>comment_text varchar (200)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2936,7 +4431,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2968,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2982,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3050,19 +4545,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>community_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3070,19 +4575,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>community_date timestamp ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3090,19 +4601,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>community_name varchar (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3110,19 +4629,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>community_tag char (43),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3130,19 +4657,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>community_summary varchar (100)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3431,7 +4966,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3449,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3463,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,7 +5012,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3485,7 +5020,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3544,20 +5079,30 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L10" t="e">
+        <f>#REF!&amp;" "&amp;C11&amp;" "&amp;IF(D11&lt;&gt;"","("&amp;D11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3565,37 +5110,53 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3919,8 +5480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71348289-106F-4B44-9355-AD2601F118FC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G45" sqref="G44:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3952,7 +5513,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3966,7 +5527,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45084</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4034,37 +5595,590 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>remark_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>community_id int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id varchar (16),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3">
+        <v>500</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>remark_text varchar (500),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">remark_date timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF23CB3-8BEC-4802-B109-EA8A4E56FF55}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table language_list (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>language_id char (1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>language_item varchar (10)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4400,4 +6514,511 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACAFB07-3AA7-40B4-BCC1-8E9CD9D1D889}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table language_list (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>purpose_id char (1),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>purpose_item varchar (20)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F805CA-79CB-4C4E-AE6B-29B0F529CDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630135F1-CAEF-46F2-91C8-1E0B023186AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="-16200" windowWidth="18150" windowHeight="15600" tabRatio="1000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13725" yWindow="-13560" windowWidth="11370" windowHeight="12030" tabRatio="896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1766,7 +1766,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2273,7 +2273,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2780,7 +2780,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3336,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3898,7 +3898,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4431,7 +4431,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4966,7 +4966,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5100,9 +5100,9 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;C11&amp;" "&amp;IF(D11&lt;&gt;"","("&amp;D11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(D11&lt;&gt;"","("&amp;D11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>community_id int (int),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5126,9 +5126,9 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id varchar (16)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5154,9 +5154,9 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(C13&lt;&gt;"","("&amp;C13&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G45" sqref="G44:G45"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6013,8 +6013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF23CB3-8BEC-4802-B109-EA8A4E56FF55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6521,7 +6521,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6587,7 +6587,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table language_list (</v>
+        <v>create table purpose_list (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630135F1-CAEF-46F2-91C8-1E0B023186AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7FD6A-298B-4986-A924-134B642801C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13725" yWindow="-13560" windowWidth="11370" windowHeight="12030" tabRatio="896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="-15030" windowWidth="23535" windowHeight="12030" tabRatio="896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="language_list" sheetId="8" r:id="rId8"/>
     <sheet name="purpose_list" sheetId="9" r:id="rId9"/>
     <sheet name="certification_list" sheetId="10" r:id="rId10"/>
-    <sheet name="tag_list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="134">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -200,16 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>藤田 陸</t>
-    <rPh sb="0" eb="2">
-      <t>フジタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>リク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,10 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本文へのリンク</t>
     <rPh sb="0" eb="2">
       <t>ホンブン</t>
@@ -527,10 +512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミュニティタグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミュニティ概要</t>
     <rPh sb="6" eb="8">
       <t>ガイヨウ</t>
@@ -578,10 +559,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>article_tag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>article_favs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -611,10 +588,6 @@
   </si>
   <si>
     <t>community_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>community_tag</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -754,25 +727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タグ一覧</t>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tag_list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tag_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tag_item</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用言語一覧</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -841,20 +795,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>記事、コミュニティに使うタグの一覧</t>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用言語タグ</t>
     <rPh sb="0" eb="2">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timestamp</t>
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用理由タグ</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラミング歴タグ</t>
+    <rPh sb="7" eb="8">
+      <t>レキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取りたい資格タグ</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_language</t>
+  </si>
+  <si>
+    <t>article_language</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_purpose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_career</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_language</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_purpose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_career</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格ID</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資格項目</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用理由ID</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用理由項目</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -955,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +1020,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1369,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C17" sqref="C17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1370,13 +1418,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1400,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1417,16 +1469,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1434,16 +1486,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1451,16 +1503,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,16 +1520,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,16 +1537,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1502,16 +1554,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,16 +1571,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1536,34 +1588,26 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
@@ -1766,7 +1810,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1784,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1798,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1820,24 +1864,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1880,23 +1928,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1910,13 +1958,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1924,7 +1972,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2268,12 +2316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC6115D-5A3E-4A62-B269-F4EC510A0537}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2291,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2305,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2327,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2339,7 +2387,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2379,7 +2427,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table tag_list (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2387,29 +2435,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>tag_id char (1),</v>
+        <v>user_id varchar (16),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2417,117 +2465,167 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>tag_item varchar (20)</v>
+        <v>password varchar (16),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>user_name varchar  (16),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>language char (16),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>purpose char (11),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>career varchar (20),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>certification char (14)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2775,12 +2873,649 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table article (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>article_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>article_title varchar (50),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_id varchar (16),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>article_create timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>article_update timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>article_language char (15),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L32" si="0">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>article_favs int ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>article_link varchar (20)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F883F59-F76E-4F8D-BE94-75920DBC810C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2798,7 +3533,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2812,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2834,24 +3569,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2886,7 +3625,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table comment (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2894,29 +3633,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="3">
-        <v>16</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (16),</v>
+        <v>comment_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2924,27 +3663,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="3">
-        <v>16</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (16),</v>
+        <v>article_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2952,13 +3689,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -2966,564 +3703,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name varchar  (16),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="3">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>language char (16),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>purpose char (11),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>career varchar (20),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>certification char (14)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table article (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>article_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>article_title varchar (50),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3537,578 +3717,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>article_create timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>article_update timestamp ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="3">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>article_tag char (43),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>article_favs int ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>article_link varchar (20)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F883F59-F76E-4F8D-BE94-75920DBC810C}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table comment (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>comment_id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>article_id int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id varchar (16),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4122,13 +3743,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -4136,7 +3757,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4428,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E55E1B-2C85-4FC1-B15C-FA56CB0F74E8}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4449,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4463,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4485,24 +4106,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4545,23 +4170,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4575,19 +4200,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4601,13 +4226,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4615,7 +4240,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4629,27 +4254,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>community_tag char (43),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>community_language char (15),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4657,81 +4282,99 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>community_summary varchar (100)</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>community_summary varchar (100)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4748,7 +4391,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L32" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4951,7 +4594,61 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4984,7 +4681,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4998,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5020,7 +4717,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5032,7 +4729,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5080,23 +4777,23 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5110,19 +4807,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5136,13 +4833,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -5150,7 +4847,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5499,7 +5196,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5513,7 +5210,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5535,7 +5232,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5547,7 +5244,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5595,23 +5292,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5625,19 +5322,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5651,13 +5348,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -5665,7 +5362,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5679,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
@@ -5693,7 +5390,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5707,19 +5404,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -6013,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF23CB3-8BEC-4802-B109-EA8A4E56FF55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6032,7 +5729,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6046,7 +5743,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6068,24 +5765,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -6128,23 +5829,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6158,13 +5859,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -6172,7 +5873,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6521,7 +6222,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6539,7 +6240,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6553,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6575,24 +6276,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45085</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -6635,23 +6340,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6665,13 +6370,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -6679,7 +6384,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>

--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7FD6A-298B-4986-A924-134B642801C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5B583-407E-4189-AA0C-2E25A759426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="-15030" windowWidth="23535" windowHeight="12030" tabRatio="896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="-14025" windowWidth="21600" windowHeight="11265" tabRatio="896" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="136">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -438,13 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本文へのリンク</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いいね数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -563,10 +556,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>article_link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>comment_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -900,6 +889,34 @@
     <rPh sb="4" eb="6">
       <t>コウモク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文の内容</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像保存先のリンク</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホゾンサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_img</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1369,7 +1386,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1554,16 +1571,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1571,16 +1588,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1588,16 +1605,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1809,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3617DEAB-F08F-4BEB-8A0C-68D6E8A77B88}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1828,7 +1845,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1864,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1878,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1928,23 +1945,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1958,13 +1975,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1972,7 +1989,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2441,17 +2458,17 @@
         <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3">
         <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2471,7 +2488,7 @@
         <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>16</v>
@@ -2479,7 +2496,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2499,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -2507,7 +2524,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2527,7 +2544,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
         <v>16</v>
@@ -2535,7 +2552,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2555,7 +2572,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3">
         <v>11</v>
@@ -2563,7 +2580,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2583,7 +2600,7 @@
         <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -2591,7 +2608,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2611,7 +2628,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3">
         <v>14</v>
@@ -2619,7 +2636,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2878,7 +2895,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2952,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>45089</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -2996,23 +3013,23 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3029,10 +3046,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -3040,7 +3057,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3060,7 +3077,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -3068,7 +3085,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3085,16 +3102,16 @@
         <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3108,19 +3125,19 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -3134,13 +3151,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="3">
         <v>15</v>
@@ -3148,7 +3165,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3162,13 +3179,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
@@ -3176,7 +3193,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3186,21 +3203,21 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -3210,13 +3227,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3">
         <v>13</v>
@@ -3224,7 +3241,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3234,19 +3251,19 @@
         <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -3260,37 +3277,45 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>article_link varchar (20)</v>
+        <v>article_text varchar (10000),</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3298,7 +3323,7 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>article_img varchar (30)</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3633,23 +3658,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3663,19 +3688,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3689,13 +3714,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -3703,7 +3728,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3717,19 +3742,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3743,13 +3768,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
@@ -3757,7 +3782,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4052,7 +4077,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4126,7 +4151,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>45085</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4170,23 +4195,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4200,19 +4225,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4226,13 +4251,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4240,7 +4265,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4254,13 +4279,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
@@ -4268,7 +4293,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4282,13 +4307,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3">
         <v>10</v>
@@ -4296,7 +4321,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4306,21 +4331,21 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4330,13 +4355,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="3">
         <v>13</v>
@@ -4344,7 +4369,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4354,13 +4379,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -4368,7 +4393,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -4681,7 +4706,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4717,7 +4742,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4777,23 +4802,23 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4807,19 +4832,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4839,7 +4864,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -4847,7 +4872,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5292,23 +5317,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5322,19 +5347,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5354,7 +5379,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3">
         <v>16</v>
@@ -5362,7 +5387,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5376,13 +5401,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
@@ -5390,7 +5415,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -5404,19 +5429,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -5710,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF23CB3-8BEC-4802-B109-EA8A4E56FF55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5729,7 +5754,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5765,7 +5790,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5779,7 +5804,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5829,23 +5854,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -5859,13 +5884,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -5873,7 +5898,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -6240,7 +6265,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6276,7 +6301,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6290,7 +6315,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6340,23 +6365,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -6370,13 +6395,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -6384,7 +6409,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>

--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5B583-407E-4189-AA0C-2E25A759426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC4E05-6A0B-4768-B075-A8E9E01B5102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="-14025" windowWidth="21600" windowHeight="11265" tabRatio="896" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="-12015" windowWidth="21600" windowHeight="11265" tabRatio="896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="138">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -916,7 +916,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>article_img</t>
+    <t>article_img1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_img2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_img3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1826,7 +1834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3617DEAB-F08F-4BEB-8A0C-68D6E8A77B88}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2894,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2969,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>45091</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3323,17 +3331,25 @@
       <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>article_img varchar (30)</v>
+        <v>article_img1 varchar (30),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3">
+        <v>30</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3341,17 +3357,25 @@
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>article_img2 varchar (30),</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="3">
+        <v>30</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -3359,7 +3383,7 @@
       <c r="J23" s="3"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>article_img3 varchar (30)</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC4E05-6A0B-4768-B075-A8E9E01B5102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417F83B-FF8B-41B1-B320-81336471AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-12015" windowWidth="21600" windowHeight="11265" tabRatio="896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="-15630" windowWidth="21600" windowHeight="11265" tabRatio="896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2345,7 +2345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2902,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3168,7 +3168,7 @@
         <v>76</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3179,7 +3179,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>article_language char (15),</v>
+        <v>article_language char (116),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3196,7 +3196,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3244,7 +3244,7 @@
         <v>76</v>
       </c>
       <c r="E18" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4101,7 +4101,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4312,7 +4312,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4323,7 +4323,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>community_language char (15),</v>
+        <v>community_language char (16),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
         <v>76</v>
       </c>
       <c r="E14" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4388,7 +4388,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5759,7 +5759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF23CB3-8BEC-4802-B109-EA8A4E56FF55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417F83B-FF8B-41B1-B320-81336471AC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7434031D-056C-4CEF-A20D-1E80F47BC7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="-15630" windowWidth="21600" windowHeight="11265" tabRatio="896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25965" yWindow="-16200" windowWidth="2835" windowHeight="15600" tabRatio="896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -826,9 +826,6 @@
   </si>
   <si>
     <t>article_language</t>
-  </si>
-  <si>
-    <t>article_language</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -925,6 +922,10 @@
   </si>
   <si>
     <t>article_img3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>article_certification</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1393,7 +1394,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1953,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>109</v>
@@ -1983,7 +1984,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>110</v>
@@ -2345,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2902,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3162,13 +3163,13 @@
         <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="3">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3179,7 +3180,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>article_language char (116),</v>
+        <v>article_language char (16),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3190,7 +3191,7 @@
         <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>76</v>
@@ -3214,7 +3215,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>73</v>
@@ -3238,7 +3239,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>76</v>
@@ -3285,10 +3286,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>73</v>
@@ -3313,10 +3314,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>73</v>
@@ -3339,10 +3340,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>73</v>
@@ -3365,10 +3366,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>73</v>
@@ -4306,7 +4307,7 @@
         <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>76</v>
@@ -4334,7 +4335,7 @@
         <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>76</v>
@@ -4358,7 +4359,7 @@
         <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>73</v>
@@ -4382,7 +4383,7 @@
         <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>76</v>
@@ -5759,7 +5760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF23CB3-8BEC-4802-B109-EA8A4E56FF55}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6389,7 +6390,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>106</v>
@@ -6419,7 +6420,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>105</v>

--- a/doc/d2_DB定義書_櫻井家.xlsx
+++ b/doc/d2_DB定義書_櫻井家.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7434031D-056C-4CEF-A20D-1E80F47BC7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E11CD2-DE90-4383-9AB1-F5C0DC007EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25965" yWindow="-16200" windowWidth="2835" windowHeight="15600" tabRatio="896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="260" windowWidth="14400" windowHeight="9720" tabRatio="896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="139">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -926,6 +926,10 @@
   </si>
   <si>
     <t>article_certification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>community_certification</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2347,7 +2351,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2903,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216452C9-1F5D-4300-8995-F9969D3CADD7}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C6" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3565,7 +3569,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4102,7 +4106,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4383,7 +4387,7 @@
         <v>120</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>76</v>
@@ -4712,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C57F7FE-B922-4A96-81BC-10F4372841E1}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5228,7 +5232,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
